--- a/Question_Set2/Programming skills/Coding Data Structures - Strings.xlsx
+++ b/Question_Set2/Programming skills/Coding Data Structures - Strings.xlsx
@@ -16,23 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "Your task is to write a function named getMaxChars that takes a string, str, as input, and returns the character in it that appears most frequently.Consider uppercase and lowercase characters to be distinct entities. The input string may include letters, numbers, punctuation marks, and special characters, all encoded in ASCII format.Note: there will always be only one character that appears most frequently.Example 1Input:str = 'abcc defg' Output: 'c’Explanation:‘c’ is the only character that appears more than once.Example 2Input:str = 'The weather forecast predicts rain tomorrow.'Output: 'r’Explanation:The lowercase letter 'r' appears six times in the sentence, making it the most frequent character.", 'ques_type': None, 'options': [], 'score': None}]</t>
+    <t>questions = [
+    {
+        "title": "Your task is to write a function named getMaxChars that takes a string, str, as input, and returns the character in it that appears most frequently.Consider uppercase and lowercase characters to be distinct entities. The input string may include letters, numbers, punctuation marks, and special characters, all encoded in ASCII format.Note: there will always be only one character that appears most frequently.Example 1Input:str = 'abcc defg' Output: 'c\u2019Explanation:\u2018c\u2019 is the only character that appears more than once.Example 2Input:str = 'The weather forecast predicts rain tomorrow.'Output: 'r\u2019Explanation:The lowercase letter 'r' appears six times in the sentence, making it the most frequent character.",
+        "ques_type": null,
+        "options": [],
+        "score": null
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +55,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
